--- a/MyEPA/FileDatas/Template/(範本)簡報產製3_飲用水質.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)簡報產製3_飲用水質.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4FCAA2-A650-4A4E-9E75-BE2F22C1E1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DD42B4-7373-49E6-9120-D18798CC8135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
   </bookViews>
@@ -1102,14 +1102,14 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
     <col min="2" max="5" width="15.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="72.1796875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>

--- a/MyEPA/FileDatas/Template/(範本)簡報產製3_飲用水質.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)簡報產製3_飲用水質.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DD42B4-7373-49E6-9120-D18798CC8135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E0CE5C-2C45-476B-925A-10D0CB8A902C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
   </bookViews>
@@ -425,19 +425,6 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>總計</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
       <t>說明</t>
     </r>
     <r>
@@ -505,6 +492,10 @@
       </rPr>
       <t>值、濁度等。</t>
     </r>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -713,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,6 +755,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6400E2CA-CCC2-447B-913F-61A8101A4210}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1145,7 +1139,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1545,26 +1539,30 @@
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
-        <v>29</v>
+      <c r="A26" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="B26" s="5">
+        <f>SUM(B4:B25)</f>
         <v>0</v>
       </c>
       <c r="C26" s="5">
+        <f>SUM(C4:C25)</f>
         <v>0</v>
       </c>
       <c r="D26" s="5">
+        <f>SUM(D4:D25)</f>
         <v>0</v>
       </c>
       <c r="E26" s="5">
+        <f>SUM(E4:E25)</f>
         <v>0</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
